--- a/testdatas/usermanagement.xlsx
+++ b/testdatas/usermanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="adduser" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
   <si>
     <t>case_id</t>
   </si>
@@ -63,178 +63,184 @@
     <t>{"errmsg":""}</t>
   </si>
   <si>
+    <t>add-user-003</t>
+  </si>
+  <si>
+    <t>中文名为空</t>
+  </si>
+  <si>
+    <t>{"username":"terry001-autotest","chinesename":"","phone":"18288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>add-user-004</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>{"username":"terry001-autotest","chinesename":"龙的传人","phone":"","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>add-user-005</t>
+  </si>
+  <si>
+    <t>邮箱为空</t>
+  </si>
+  <si>
+    <t>{"username":"terry001-autotest","chinesename":"龙的传人","phone":"18288888888","email":"","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>add-user-006</t>
+  </si>
+  <si>
+    <t>勾选Leader复选框</t>
+  </si>
+  <si>
+    <t>{"username":"terry002-autotest","chinesename":"龙的传人02","phone":"18299999999","email":"9999@qq.com","is_leader":"True","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>{"success_msg":"新建集群成功"}</t>
+  </si>
+  <si>
+    <t>add-user-007</t>
+  </si>
+  <si>
+    <t>勾选参与审批复选框</t>
+  </si>
+  <si>
+    <t>{"username":"terry003-autotest","chinesename":"龙的传人03","phone":"18277777777","email":"7777@qq.com","is_leader":"False","is_approve":"True","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>add-user-008</t>
+  </si>
+  <si>
+    <t>重复的用户名</t>
+  </si>
+  <si>
+    <t>{"username":"terry001-autotest","chinesename":"龙的传人11","phone":"18388888888","email":"88881@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>{"errmsg":"电话、用户名、邮箱不能重复"}</t>
+  </si>
+  <si>
+    <t>add-user-009</t>
+  </si>
+  <si>
+    <t>重复的中文名</t>
+  </si>
+  <si>
+    <t>{"username":"terry004-autotest","chinesename":"龙的传人","phone":"18488888888","email":"8889@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>add-user-010</t>
+  </si>
+  <si>
+    <t>重复的手机号码</t>
+  </si>
+  <si>
+    <t>{"username":"terry005-autotest","chinesename":"龙的传人12","phone":"18288888888","email":"8890@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>{"errmsg":"该用户已被注册"}</t>
+  </si>
+  <si>
+    <t>add-user-011</t>
+  </si>
+  <si>
+    <t>重复的邮箱</t>
+  </si>
+  <si>
+    <t>{"username":"terry006-autotest","chinesename":"龙的传人13","phone":"18188888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>edit-user-001</t>
+  </si>
+  <si>
+    <t>修改用户名称</t>
+  </si>
+  <si>
+    <t>{"username":"terry001-modify","chinesename":"龙的传人","phone":"18288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"编辑用户成功"}</t>
+  </si>
+  <si>
+    <t>edit-user-002</t>
+  </si>
+  <si>
+    <t>修改中文名</t>
+  </si>
+  <si>
+    <t>{"username":"terry001-modify","chinesename":"龙的传人修改后","phone":"18288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>edit-user-003</t>
+  </si>
+  <si>
+    <t>修改手机号</t>
+  </si>
+  <si>
+    <t>{"username":"terry001-modify","chinesename":"龙的传人修改后","phone":"13288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>edit-user-004</t>
+  </si>
+  <si>
+    <t>修改邮箱</t>
+  </si>
+  <si>
+    <t>{"username":"terry001-modify","chinesename":"龙的传人修改后","phone":"13288888888","email":"88888888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>add-role-001</t>
+  </si>
+  <si>
+    <t>正常输入</t>
+  </si>
+  <si>
+    <t>{"name":"test001","comment":"add by terry","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"编辑角色成功"}</t>
+  </si>
+  <si>
+    <t>add-role-002</t>
+  </si>
+  <si>
+    <t>角色名为空</t>
+  </si>
+  <si>
+    <t>{"name":"","comment":"add by terry","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"errmsg":"请输入角色名"}</t>
+  </si>
+  <si>
     <t>False</t>
   </si>
   <si>
-    <t>add-user-003</t>
-  </si>
-  <si>
-    <t>中文名为空</t>
-  </si>
-  <si>
-    <t>{"username":"terry001-autotest","chinesename":"","phone":"18288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>add-user-004</t>
-  </si>
-  <si>
-    <t>手机号为空</t>
-  </si>
-  <si>
-    <t>{"username":"terry001-autotest","chinesename":"龙的传人","phone":"","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>add-user-005</t>
-  </si>
-  <si>
-    <t>邮箱为空</t>
-  </si>
-  <si>
-    <t>{"username":"terry001-autotest","chinesename":"龙的传人","phone":"18288888888","email":"","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>add-user-006</t>
-  </si>
-  <si>
-    <t>勾选Leader复选框</t>
-  </si>
-  <si>
-    <t>{"username":"terry002-autotest","chinesename":"龙的传人02","phone":"18299999999","email":"9999@qq.com","is_leader":"True","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>{"success_msg":"新建集群成功"}</t>
-  </si>
-  <si>
-    <t>add-user-007</t>
-  </si>
-  <si>
-    <t>勾选参与审批复选框</t>
-  </si>
-  <si>
-    <t>{"username":"terry003-autotest","chinesename":"龙的传人03","phone":"18277777777","email":"7777@qq.com","is_leader":"False","is_approve":"True","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>add-user-008</t>
-  </si>
-  <si>
-    <t>重复的用户名</t>
-  </si>
-  <si>
-    <t>{"username":"terry001-autotest","chinesename":"龙的传人11","phone":"18388888888","email":"88881@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>{"errmsg":"电话、用户名、邮箱不能重复"}</t>
-  </si>
-  <si>
-    <t>add-user-009</t>
-  </si>
-  <si>
-    <t>重复的中文名</t>
-  </si>
-  <si>
-    <t>{"username":"terry004-autotest","chinesename":"龙的传人","phone":"18488888888","email":"8889@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>add-user-010</t>
-  </si>
-  <si>
-    <t>重复的手机号码</t>
-  </si>
-  <si>
-    <t>{"username":"terry005-autotest","chinesename":"龙的传人12","phone":"18288888888","email":"8890@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>{"errmsg":"该用户已被注册"}</t>
-  </si>
-  <si>
-    <t>add-user-011</t>
-  </si>
-  <si>
-    <t>重复的邮箱</t>
-  </si>
-  <si>
-    <t>{"username":"terry006-autotest","chinesename":"龙的传人13","phone":"18188888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>edit-user-001</t>
-  </si>
-  <si>
-    <t>修改用户名称</t>
-  </si>
-  <si>
-    <t>{"username":"terry001-modify","chinesename":"龙的传人","phone":"18288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>{"msg":"编辑用户成功"}</t>
-  </si>
-  <si>
-    <t>edit-user-002</t>
-  </si>
-  <si>
-    <t>修改中文名</t>
-  </si>
-  <si>
-    <t>{"username":"terry001-modify","chinesename":"龙的传人修改后","phone":"18288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>edit-user-003</t>
-  </si>
-  <si>
-    <t>修改手机号</t>
-  </si>
-  <si>
-    <t>{"username":"terry001-modify","chinesename":"龙的传人修改后","phone":"13288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>edit-user-004</t>
-  </si>
-  <si>
-    <t>修改邮箱</t>
-  </si>
-  <si>
-    <t>{"username":"terry001-modify","chinesename":"龙的传人修改后","phone":"13288888888","email":"88888888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>add-role-001</t>
-  </si>
-  <si>
-    <t>正常输入</t>
-  </si>
-  <si>
-    <t>{"name":"test001","comment":"add by terry","is_save":"True"}</t>
+    <t>add-role-003</t>
+  </si>
+  <si>
+    <t>备注为空</t>
+  </si>
+  <si>
+    <t>{"name":"test002","comment":"","is_save":"True"}</t>
   </si>
   <si>
     <t>{"msg":"创建角色成功"}</t>
   </si>
   <si>
-    <t>add-role-002</t>
-  </si>
-  <si>
-    <t>角色名为空</t>
-  </si>
-  <si>
-    <t>{"name":"","comment":"add by terry","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>{"errmsg":"请输入角色名"}</t>
-  </si>
-  <si>
-    <t>add-role-003</t>
-  </si>
-  <si>
-    <t>备注为空</t>
-  </si>
-  <si>
-    <t>{"name":"test002","comment":"","is_save":"True"}</t>
-  </si>
-  <si>
     <t>add-role-004</t>
   </si>
   <si>
     <t>角色重名</t>
   </si>
   <si>
-    <t>{"name":"test","comment":"add by terry111","is_save":"True"}</t>
+    <t>{"name":"test001","comment":"add by terry111","is_save":"True"}</t>
   </si>
   <si>
     <t>{"errmsg":"角色已存在"}</t>
@@ -254,10 +260,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -265,6 +271,74 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -276,37 +350,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,38 +389,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,52 +417,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -421,13 +427,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,169 +553,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,6 +618,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -633,32 +683,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,26 +718,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -720,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -732,133 +738,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1195,7 +1201,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1260,167 +1266,167 @@
         <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3"/>
     </row>
     <row r="4" ht="54" spans="1:6">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F4"/>
     </row>
     <row r="5" ht="40.5" spans="1:6">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6"/>
     </row>
     <row r="7" ht="40.5" spans="1:6">
       <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F7"/>
     </row>
     <row r="8" ht="40.5" spans="1:6">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F8"/>
     </row>
     <row r="9" ht="40.5" spans="1:6">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9"/>
     </row>
     <row r="10" ht="40.5" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" t="s">
         <v>41</v>
       </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:5">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +1440,7 @@
   <sheetPr/>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1470,16 +1476,16 @@
     </row>
     <row r="2" ht="40.5" spans="1:6">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>48</v>
-      </c>
-      <c r="D2" t="s">
-        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -1488,16 +1494,16 @@
     </row>
     <row r="3" ht="40.5" spans="1:6">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
@@ -1506,16 +1512,16 @@
     </row>
     <row r="4" ht="40.5" spans="1:6">
       <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -1524,16 +1530,16 @@
     </row>
     <row r="5" ht="40.5" spans="1:6">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
@@ -1602,13 +1608,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
@@ -1618,7 +1624,7 @@
     <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:6">
+    <row r="1" ht="17" customHeight="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1636,6 +1642,9 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1670,61 +1679,61 @@
         <v>66</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F3"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="F4"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="F6"/>
     </row>

--- a/testdatas/usermanagement.xlsx
+++ b/testdatas/usermanagement.xlsx
@@ -63,6 +63,9 @@
     <t>{"errmsg":""}</t>
   </si>
   <si>
+    <t>False</t>
+  </si>
+  <si>
     <t>add-user-003</t>
   </si>
   <si>
@@ -217,9 +220,6 @@
   </si>
   <si>
     <t>{"errmsg":"请输入角色名"}</t>
-  </si>
-  <si>
-    <t>False</t>
   </si>
   <si>
     <t>add-role-003</t>
@@ -260,10 +260,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -271,6 +271,113 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -282,104 +389,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -389,32 +398,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -427,19 +427,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,19 +541,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,61 +589,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,73 +607,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -645,22 +645,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,42 +692,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -726,10 +726,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -738,133 +738,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E3" sqref="E3:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1266,167 +1266,167 @@
         <v>14</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3"/>
     </row>
     <row r="4" ht="54" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F4"/>
     </row>
     <row r="5" ht="40.5" spans="1:6">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F5"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6"/>
     </row>
     <row r="7" ht="40.5" spans="1:6">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F7"/>
     </row>
     <row r="8" ht="40.5" spans="1:6">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F8"/>
     </row>
     <row r="9" ht="40.5" spans="1:6">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9"/>
     </row>
     <row r="10" ht="40.5" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="1:5">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="40.5" spans="1:5">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1476,16 +1476,16 @@
     </row>
     <row r="2" ht="40.5" spans="1:6">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -1494,16 +1494,16 @@
     </row>
     <row r="3" ht="40.5" spans="1:6">
       <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
@@ -1512,16 +1512,16 @@
     </row>
     <row r="4" ht="40.5" spans="1:6">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -1530,16 +1530,16 @@
     </row>
     <row r="5" ht="40.5" spans="1:6">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
@@ -1611,7 +1611,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1644,21 +1644,21 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -1667,19 +1667,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F3"/>
     </row>
@@ -1697,7 +1697,7 @@
         <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F4"/>
     </row>
@@ -1715,7 +1715,7 @@
         <v>75</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F5"/>
     </row>
@@ -1733,7 +1733,7 @@
         <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F6"/>
     </row>

--- a/testdatas/usermanagement.xlsx
+++ b/testdatas/usermanagement.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="27870" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="adduser" sheetId="1" r:id="rId1"/>
     <sheet name="edituser" sheetId="3" r:id="rId2"/>
-    <sheet name="role" sheetId="2" r:id="rId3"/>
+    <sheet name="addrole" sheetId="2" r:id="rId3"/>
+    <sheet name="editrole" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="106">
   <si>
     <t>case_id</t>
   </si>
@@ -30,151 +31,181 @@
     <t>expect</t>
   </si>
   <si>
+    <t>text_location</t>
+  </si>
+  <si>
     <t>execute</t>
   </si>
   <si>
-    <t>testresult</t>
-  </si>
-  <si>
-    <t>add-user-001</t>
+    <t>add-user-01</t>
   </si>
   <si>
     <t>全部字段都正常填写，下拉选择保持默认</t>
   </si>
   <si>
-    <t>{"username":"terry001-autotest","chinesename":"龙的传人","phone":"18288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>{"success_msg":"创建用户成功"}</t>
+    <t>{"username":"terry0001-autotest","chinesename":"龙的传人","phone":"18288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"创建用户成功"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='创建用户成功']"}</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>add-user-02</t>
+  </si>
+  <si>
+    <t>勾选Leader复选框</t>
+  </si>
+  <si>
+    <t>{"username":"terry0002-autotest","chinesename":"龙的传人02","phone":"18299999999","email":"9999@qq.com","is_leader":"True","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>add-user-03</t>
+  </si>
+  <si>
+    <t>勾选参与审批复选框</t>
+  </si>
+  <si>
+    <t>{"username":"terry0003-autotest","chinesename":"龙的传人03","phone":"18277777777","email":"7777@qq.com","is_leader":"True","is_approve":"True","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>add-user-04</t>
+  </si>
+  <si>
+    <t>重复的中文名</t>
+  </si>
+  <si>
+    <t>{"username":"terry0004-autotest","chinesename":"龙的传人","phone":"13566666666","email":"8889@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>add-user-05</t>
+  </si>
+  <si>
+    <t>用户名为空</t>
+  </si>
+  <si>
+    <t>{"username":"","chinesename":"龙的传人","phone":"18288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入用户名"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入用户名']"}</t>
+  </si>
+  <si>
+    <t>add-user-06</t>
+  </si>
+  <si>
+    <t>中文名为空</t>
+  </si>
+  <si>
+    <t>{"username":"terry0001-autotest","chinesename":"","phone":"18288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入中文名"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入中文名']"}</t>
+  </si>
+  <si>
+    <t>add-user-07</t>
+  </si>
+  <si>
+    <t>手机号为空</t>
+  </si>
+  <si>
+    <t>{"username":"terry0001-autotest","chinesename":"龙的传人","phone":"","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入手机号"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入手机号']"}</t>
+  </si>
+  <si>
+    <t>add-user-08</t>
+  </si>
+  <si>
+    <t>邮箱为空</t>
+  </si>
+  <si>
+    <t>{"username":"terry0001-autotest","chinesename":"龙的传人","phone":"18266668888","email":"","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入邮箱"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入邮箱']"}</t>
+  </si>
+  <si>
+    <t>add-user-09</t>
+  </si>
+  <si>
+    <t>重复的用户名</t>
+  </si>
+  <si>
+    <t>{"username":"terry0001-autotest","chinesename":"龙的传人11","phone":"18388888888","email":"88881@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"电话、用户名、邮箱不能重复"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='电话、用户名、邮箱不能重复']"}</t>
+  </si>
+  <si>
+    <t>add-user-10</t>
+  </si>
+  <si>
+    <t>重复的手机号码</t>
+  </si>
+  <si>
+    <t>{"username":"terry0005-autotest","chinesename":"龙的传人12","phone":"18288888888","email":"8890@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"该用户已被注册"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='该用户已被注册']"}</t>
+  </si>
+  <si>
+    <t>add-user-11</t>
+  </si>
+  <si>
+    <t>重复的邮箱</t>
+  </si>
+  <si>
+    <t>{"username":"terry0006-autotest","chinesename":"龙的传人13","phone":"18988888888","email":"9999@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>add-user-002</t>
-  </si>
-  <si>
-    <t>名字为空</t>
-  </si>
-  <si>
-    <t>{"username":"","chinesename":"龙的传人","phone":"18288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>{"errmsg":""}</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>add-user-003</t>
-  </si>
-  <si>
-    <t>中文名为空</t>
-  </si>
-  <si>
-    <t>{"username":"terry001-autotest","chinesename":"","phone":"18288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>add-user-004</t>
-  </si>
-  <si>
-    <t>手机号为空</t>
-  </si>
-  <si>
-    <t>{"username":"terry001-autotest","chinesename":"龙的传人","phone":"","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>add-user-005</t>
-  </si>
-  <si>
-    <t>邮箱为空</t>
-  </si>
-  <si>
-    <t>{"username":"terry001-autotest","chinesename":"龙的传人","phone":"18288888888","email":"","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>add-user-006</t>
-  </si>
-  <si>
-    <t>勾选Leader复选框</t>
-  </si>
-  <si>
-    <t>{"username":"terry002-autotest","chinesename":"龙的传人02","phone":"18299999999","email":"9999@qq.com","is_leader":"True","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>{"success_msg":"新建集群成功"}</t>
-  </si>
-  <si>
-    <t>add-user-007</t>
-  </si>
-  <si>
-    <t>勾选参与审批复选框</t>
-  </si>
-  <si>
-    <t>{"username":"terry003-autotest","chinesename":"龙的传人03","phone":"18277777777","email":"7777@qq.com","is_leader":"False","is_approve":"True","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>add-user-008</t>
-  </si>
-  <si>
-    <t>重复的用户名</t>
-  </si>
-  <si>
-    <t>{"username":"terry001-autotest","chinesename":"龙的传人11","phone":"18388888888","email":"88881@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>{"errmsg":"电话、用户名、邮箱不能重复"}</t>
-  </si>
-  <si>
-    <t>add-user-009</t>
-  </si>
-  <si>
-    <t>重复的中文名</t>
-  </si>
-  <si>
-    <t>{"username":"terry004-autotest","chinesename":"龙的传人","phone":"18488888888","email":"8889@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>add-user-010</t>
-  </si>
-  <si>
-    <t>重复的手机号码</t>
-  </si>
-  <si>
-    <t>{"username":"terry005-autotest","chinesename":"龙的传人12","phone":"18288888888","email":"8890@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>{"errmsg":"该用户已被注册"}</t>
-  </si>
-  <si>
-    <t>add-user-011</t>
-  </si>
-  <si>
-    <t>重复的邮箱</t>
-  </si>
-  <si>
-    <t>{"username":"terry006-autotest","chinesename":"龙的传人13","phone":"18188888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
     <t>edit-user-001</t>
   </si>
   <si>
     <t>修改用户名称</t>
   </si>
   <si>
-    <t>{"username":"terry001-modify","chinesename":"龙的传人","phone":"18288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+    <t>{"username":"terry0001-modify","chinesename":"","phone":"","email":"","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
   </si>
   <si>
     <t>{"msg":"编辑用户成功"}</t>
   </si>
   <si>
+    <t>{"xpath":"//span[text()='编辑用户成功']"}</t>
+  </si>
+  <si>
     <t>edit-user-002</t>
   </si>
   <si>
     <t>修改中文名</t>
   </si>
   <si>
-    <t>{"username":"terry001-modify","chinesename":"龙的传人修改后","phone":"18288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+    <t>{"username":"","chinesename":"龙的传人修改后","phone":"","email":"","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
   </si>
   <si>
     <t>edit-user-003</t>
@@ -183,7 +214,7 @@
     <t>修改手机号</t>
   </si>
   <si>
-    <t>{"username":"terry001-modify","chinesename":"龙的传人修改后","phone":"13288888888","email":"8888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+    <t>{"username":"","chinesename":"","phone":"13288888888","email":"","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
   </si>
   <si>
     <t>edit-user-004</t>
@@ -192,10 +223,7 @@
     <t>修改邮箱</t>
   </si>
   <si>
-    <t>{"username":"terry001-modify","chinesename":"龙的传人修改后","phone":"13288888888","email":"88888888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>reason</t>
+    <t>{"username":"","chinesename":"","phone":"","email":"88888888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
   </si>
   <si>
     <t>add-role-001</t>
@@ -204,55 +232,109 @@
     <t>正常输入</t>
   </si>
   <si>
-    <t>{"name":"test001","comment":"add by terry","is_save":"True"}</t>
+    <t>{"name":"role001","comment":"add by terry","customer":"test001-111","is_save":"True"}</t>
   </si>
   <si>
     <t>{"msg":"编辑角色成功"}</t>
   </si>
   <si>
+    <t>{"xpath":"//span[text()='编辑角色成功']"}</t>
+  </si>
+  <si>
     <t>add-role-002</t>
   </si>
   <si>
+    <t>备注为空</t>
+  </si>
+  <si>
+    <t>{"name":"role002","comment":"","customer":"test001-111","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>add-role-003</t>
+  </si>
+  <si>
+    <t>备注重复</t>
+  </si>
+  <si>
+    <t>{"name":"role003","comment":"add by terry","customer":"test001-111","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>add-role-004</t>
+  </si>
+  <si>
+    <t>角色重名</t>
+  </si>
+  <si>
+    <t>{"msg":"角色已存在"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='角色已存在']"}</t>
+  </si>
+  <si>
+    <t>add-role-005</t>
+  </si>
+  <si>
     <t>角色名为空</t>
   </si>
   <si>
-    <t>{"name":"","comment":"add by terry","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>{"errmsg":"请输入角色名"}</t>
-  </si>
-  <si>
-    <t>add-role-003</t>
-  </si>
-  <si>
-    <t>备注为空</t>
-  </si>
-  <si>
-    <t>{"name":"test002","comment":"","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>{"msg":"创建角色成功"}</t>
-  </si>
-  <si>
-    <t>add-role-004</t>
-  </si>
-  <si>
-    <t>角色重名</t>
-  </si>
-  <si>
-    <t>{"name":"test001","comment":"add by terry111","is_save":"True"}</t>
-  </si>
-  <si>
-    <t>{"errmsg":"角色已存在"}</t>
-  </si>
-  <si>
-    <t>add-role-005</t>
-  </si>
-  <si>
-    <t>备注重复</t>
-  </si>
-  <si>
-    <t>{"name":"test003","comment":"add by terry","is_save":"True"}</t>
+    <t>{"name":"","comment":"add by terry","customer":"test001-111","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"请输入角色名"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//div[text()='请输入角色名']"}</t>
+  </si>
+  <si>
+    <t>edit-role-001</t>
+  </si>
+  <si>
+    <t>修改角色名称</t>
+  </si>
+  <si>
+    <t>{"name":"role001-111","comment":"add by terry","customer":"test001-111","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-role-002</t>
+  </si>
+  <si>
+    <t>修改所属用户</t>
+  </si>
+  <si>
+    <t>{"name":"role001-111","comment":"add by terry","customer":"内部","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-role-003</t>
+  </si>
+  <si>
+    <t>{"name":"role001-111","comment":"","customer":"内部","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-role-004</t>
+  </si>
+  <si>
+    <t>修改备注</t>
+  </si>
+  <si>
+    <t>{"name":"role001-111","comment":"仅供测试使用，拥有全部的权限","customer":"内部","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>edit-role-005</t>
+  </si>
+  <si>
+    <t>修改为已存在的角色名称</t>
+  </si>
+  <si>
+    <t>{"name":"role002","comment":"role name repeat","customer":"内部","is_save":"True"}</t>
+  </si>
+  <si>
+    <t>{"msg":"修改不能与其他角色名称同名"}</t>
+  </si>
+  <si>
+    <t>{"xpath":"//span[text()='修改不能与其他角色名称同名']"}</t>
+  </si>
+  <si>
+    <t>edit-role-006</t>
   </si>
 </sst>
 </file>
@@ -260,8 +342,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -282,7 +364,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,33 +431,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,16 +471,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,47 +486,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,13 +509,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,169 +635,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -618,15 +700,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -646,6 +719,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -660,17 +757,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -692,6 +783,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -700,24 +800,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -726,10 +808,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -738,133 +820,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1198,23 +1280,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:6">
+    <row r="1" ht="17" customHeight="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1233,8 +1316,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:6">
+      <c r="G1"/>
+    </row>
+    <row r="2" ht="40.5" spans="1:7">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1247,187 +1331,256 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" ht="40.5" spans="1:6">
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" ht="40.5" spans="1:7">
       <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3"/>
+    </row>
+    <row r="4" ht="40.5" spans="1:7">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" ht="54" spans="1:6">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" ht="40.5" spans="1:7">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" ht="40.5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:7">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" ht="40.5" spans="1:6">
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6"/>
+    </row>
+    <row r="7" ht="54" spans="1:7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7"/>
-    </row>
-    <row r="8" ht="40.5" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7"/>
+    </row>
+    <row r="8" ht="40.5" spans="1:7">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8"/>
-    </row>
-    <row r="9" ht="40.5" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8"/>
+    </row>
+    <row r="9" ht="40.5" spans="1:7">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9"/>
-    </row>
-    <row r="10" ht="40.5" spans="1:5">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9"/>
+    </row>
+    <row r="10" ht="40.5" spans="1:6">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" ht="40.5" spans="1:5">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:6">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="40.5" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="1:6">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="F12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17"/>
+      <c r="C17" s="2"/>
+      <c r="D17"/>
+      <c r="E17"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18"/>
+      <c r="C18" s="2"/>
+      <c r="D18"/>
+      <c r="E18"/>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19"/>
+      <c r="C19" s="2"/>
+      <c r="D19"/>
+      <c r="E19"/>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20"/>
+      <c r="C20" s="2"/>
+      <c r="D20"/>
+      <c r="E20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1438,23 +1591,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="5" width="42" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:6">
+    <row r="1" ht="17" customHeight="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1473,131 +1626,151 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:6">
+      <c r="G1"/>
+    </row>
+    <row r="2" ht="40.5" spans="1:7">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" ht="40.5" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" ht="40.5" spans="1:7">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" ht="40.5" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" ht="27" spans="1:7">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" ht="40.5" spans="1:6">
+      <c r="G4"/>
+    </row>
+    <row r="5" ht="27" spans="1:7">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
         <v>58</v>
       </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6" s="2"/>
       <c r="D6"/>
-      <c r="E6" s="3"/>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6"/>
+      <c r="F6" s="3"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="2"/>
       <c r="D7"/>
-      <c r="E7" s="3"/>
-      <c r="F7"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="E7"/>
+      <c r="F7" s="3"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8" s="2"/>
       <c r="D8"/>
-      <c r="E8" s="3"/>
-      <c r="F8"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="E8"/>
+      <c r="F8" s="3"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9" s="2"/>
       <c r="D9"/>
-      <c r="E9" s="3"/>
-      <c r="F9"/>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9"/>
+      <c r="F9" s="3"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10" s="2"/>
       <c r="D10"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11" s="2"/>
       <c r="D11"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12" s="2"/>
       <c r="D12"/>
-      <c r="E12" s="3"/>
+      <c r="E12"/>
+      <c r="F12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1608,20 +1781,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="62.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:7">
@@ -1643,107 +1817,309 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1"/>
+    </row>
+    <row r="2" ht="27" spans="1:7">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2"/>
-    </row>
-    <row r="3" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" ht="27" spans="1:7">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3"/>
-    </row>
-    <row r="4" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" ht="27" spans="1:7">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" ht="27" spans="1:7">
+      <c r="A5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="E5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" ht="27" spans="1:7">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6"/>
-    </row>
-    <row r="7" spans="1:6">
+        <v>86</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7" s="2"/>
       <c r="D7"/>
-      <c r="E7" s="3"/>
-      <c r="F7"/>
+      <c r="E7"/>
+      <c r="F7" s="3"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1"/>
+    </row>
+    <row r="2" ht="27" spans="1:7">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" ht="27" spans="1:7">
+      <c r="A3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3"/>
+    </row>
+    <row r="4" ht="27" spans="1:7">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4"/>
+    </row>
+    <row r="5" ht="27" spans="1:7">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5"/>
+    </row>
+    <row r="6" ht="27" spans="1:7">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6"/>
+    </row>
+    <row r="7" ht="27" spans="1:7">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8" s="2"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8" s="3"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/testdatas/usermanagement.xlsx
+++ b/testdatas/usermanagement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27870" windowHeight="13140" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="adduser" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="105">
   <si>
     <t>case_id</t>
   </si>
@@ -52,7 +52,7 @@
     <t>{"xpath":"//span[text()='创建用户成功']"}</t>
   </si>
   <si>
-    <t>False</t>
+    <t>True</t>
   </si>
   <si>
     <t>add-user-02</t>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>{"username":"terry0006-autotest","chinesename":"龙的传人13","phone":"18988888888","email":"9999@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
-  </si>
-  <si>
-    <t>True</t>
   </si>
   <si>
     <t>edit-user-001</t>
@@ -342,10 +339,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -357,7 +354,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,7 +368,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,8 +396,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -408,47 +466,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -463,42 +490,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -509,13 +506,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,169 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,6 +711,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,6 +774,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -756,50 +797,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -808,145 +805,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1282,8 +1279,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1543,7 +1540,7 @@
         <v>45</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -1593,8 +1590,8 @@
   <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F5"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1630,85 +1627,85 @@
     </row>
     <row r="2" ht="40.5" spans="1:7">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
         <v>55</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>58</v>
       </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" ht="40.5" spans="1:7">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4" ht="27" spans="1:7">
       <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
-        <v>59</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" ht="27" spans="1:7">
       <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" t="s">
         <v>66</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
         <v>58</v>
       </c>
-      <c r="E5" t="s">
-        <v>59</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G5"/>
     </row>
@@ -1821,106 +1818,106 @@
     </row>
     <row r="2" ht="27" spans="1:7">
       <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" ht="27" spans="1:7">
       <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
         <v>74</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4" ht="27" spans="1:7">
       <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" ht="27" spans="1:7">
       <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
         <v>80</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
         <v>81</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>82</v>
       </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6" ht="27" spans="1:7">
       <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s">
         <v>84</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G6"/>
     </row>
@@ -1985,127 +1982,127 @@
     </row>
     <row r="2" ht="27" spans="1:7">
       <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" ht="27" spans="1:7">
       <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="E3" t="s">
-        <v>73</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G3"/>
     </row>
     <row r="4" ht="27" spans="1:7">
       <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G4"/>
     </row>
     <row r="5" ht="27" spans="1:7">
       <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
         <v>97</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="D5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G5"/>
     </row>
     <row r="6" ht="27" spans="1:7">
       <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
         <v>100</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G6"/>
     </row>
     <row r="7" ht="27" spans="1:7">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G7"/>
     </row>

--- a/testdatas/usermanagement.xlsx
+++ b/testdatas/usermanagement.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="27870" windowHeight="13140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="adduser" sheetId="1" r:id="rId1"/>
     <sheet name="edituser" sheetId="3" r:id="rId2"/>
-    <sheet name="addrole" sheetId="2" r:id="rId3"/>
-    <sheet name="editrole" sheetId="4" r:id="rId4"/>
+    <sheet name="searchuser" sheetId="5" r:id="rId3"/>
+    <sheet name="addrole" sheetId="2" r:id="rId4"/>
+    <sheet name="editrole" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="114">
   <si>
     <t>case_id</t>
   </si>
@@ -221,6 +222,33 @@
   </si>
   <si>
     <t>{"username":"","chinesename":"","phone":"","email":"88888888@qq.com","is_leader":"False","is_approve":"False","is_enable":"True"}</t>
+  </si>
+  <si>
+    <t>search-user-001</t>
+  </si>
+  <si>
+    <t>只按用户名模糊搜索</t>
+  </si>
+  <si>
+    <t>{"username":"terry","customername":"内部"}</t>
+  </si>
+  <si>
+    <t>search-user-002</t>
+  </si>
+  <si>
+    <t>用户名精确搜索</t>
+  </si>
+  <si>
+    <t>{"username":"terry0002-autotest","customername":""}</t>
+  </si>
+  <si>
+    <t>search-user-003</t>
+  </si>
+  <si>
+    <t>只按所属客户搜索</t>
+  </si>
+  <si>
+    <t>{"username":"","customername":"内部"}</t>
   </si>
   <si>
     <t>add-role-001</t>
@@ -339,17 +367,40 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -367,8 +418,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,30 +434,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -427,9 +456,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,9 +465,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -451,7 +479,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -482,16 +510,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,25 +542,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,157 +674,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,16 +737,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -726,26 +762,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,8 +795,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,16 +810,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -805,10 +841,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -817,16 +853,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -838,116 +874,116 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -957,6 +993,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1279,8 +1318,8 @@
   <sheetPr/>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F12"/>
+    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1591,7 +1630,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A1" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1776,6 +1815,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="17.125" customWidth="1"/>
+    <col min="2" max="2" width="23.25" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:6">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G8"/>
@@ -1818,19 +1945,19 @@
     </row>
     <row r="2" ht="27" spans="1:7">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
@@ -1839,19 +1966,19 @@
     </row>
     <row r="3" ht="27" spans="1:7">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
@@ -1860,19 +1987,19 @@
     </row>
     <row r="4" ht="27" spans="1:7">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
@@ -1881,19 +2008,19 @@
     </row>
     <row r="5" ht="27" spans="1:7">
       <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
@@ -1902,19 +2029,19 @@
     </row>
     <row r="6" ht="27" spans="1:7">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -1939,7 +2066,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G9"/>
@@ -1982,19 +2109,19 @@
     </row>
     <row r="2" ht="27" spans="1:7">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
@@ -2003,19 +2130,19 @@
     </row>
     <row r="3" ht="27" spans="1:7">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>11</v>
@@ -2024,19 +2151,19 @@
     </row>
     <row r="4" ht="27" spans="1:7">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
@@ -2045,19 +2172,19 @@
     </row>
     <row r="5" ht="27" spans="1:7">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>11</v>
@@ -2066,19 +2193,19 @@
     </row>
     <row r="6" ht="27" spans="1:7">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
@@ -2087,19 +2214,19 @@
     </row>
     <row r="7" ht="27" spans="1:7">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
